--- a/po_analysis_by_asin/B0C278SMPT_po_data.xlsx
+++ b/po_analysis_by_asin/B0C278SMPT_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
         <v>45116.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>162</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
@@ -540,73 +540,57 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45165.99999999999</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45193.99999999999</v>
-      </c>
-      <c r="B20" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45200.99999999999</v>
-      </c>
-      <c r="B21" t="n">
         <v>30</v>
       </c>
     </row>
@@ -670,7 +654,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>314</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6">

--- a/po_analysis_by_asin/B0C278SMPT_po_data.xlsx
+++ b/po_analysis_by_asin/B0C278SMPT_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -621,7 +622,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -671,6 +672,411 @@
       </c>
       <c r="B7" t="n">
         <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.724196028557685</v>
+      </c>
+      <c r="D2" t="n">
+        <v>69.48386525379559</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>38</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.036403752373369</v>
+      </c>
+      <c r="D3" t="n">
+        <v>72.15069043208655</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>38</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.344411185869462</v>
+      </c>
+      <c r="D4" t="n">
+        <v>71.66746680044032</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>37</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.468457462162412</v>
+      </c>
+      <c r="D5" t="n">
+        <v>72.69763229161141</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>37</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.985447843216842</v>
+      </c>
+      <c r="D6" t="n">
+        <v>67.91282199265348</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>37</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.26497498227738</v>
+      </c>
+      <c r="D7" t="n">
+        <v>68.19584582704151</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>36</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.238636608320768</v>
+      </c>
+      <c r="D8" t="n">
+        <v>69.52021560521634</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>36</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.464733055337547</v>
+      </c>
+      <c r="D9" t="n">
+        <v>69.61010310956354</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>36</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.990201137511742</v>
+      </c>
+      <c r="D10" t="n">
+        <v>71.23684861118853</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>35</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.707703859705789</v>
+      </c>
+      <c r="D11" t="n">
+        <v>66.91591645686914</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>35</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.621680180779342</v>
+      </c>
+      <c r="D12" t="n">
+        <v>67.87417722941368</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>34</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.209347626187893</v>
+      </c>
+      <c r="D13" t="n">
+        <v>68.28362214255951</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>33</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6204628885127841</v>
+      </c>
+      <c r="D14" t="n">
+        <v>68.8996786922621</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>33</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-2.942264566244702</v>
+      </c>
+      <c r="D15" t="n">
+        <v>64.85507197258316</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-2.26290456718343</v>
+      </c>
+      <c r="D16" t="n">
+        <v>67.81507885668363</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>32</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.213508478815205</v>
+      </c>
+      <c r="D17" t="n">
+        <v>65.95849725667001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>32</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.04549005304805519</v>
+      </c>
+      <c r="D18" t="n">
+        <v>66.89543271648124</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>31</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.510133002687566</v>
+      </c>
+      <c r="D19" t="n">
+        <v>65.61902817448012</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>31</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-2.862120874982139</v>
+      </c>
+      <c r="D20" t="n">
+        <v>64.84032189019071</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>31</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.026367455784517</v>
+      </c>
+      <c r="D21" t="n">
+        <v>65.0435080612598</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>30</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-5.454180066051711</v>
+      </c>
+      <c r="D22" t="n">
+        <v>64.33345426202355</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>30</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.905340922178822</v>
+      </c>
+      <c r="D23" t="n">
+        <v>66.60254390638971</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>30</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-3.304976169951232</v>
+      </c>
+      <c r="D24" t="n">
+        <v>63.50043699026571</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>29</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-5.146597635960095</v>
+      </c>
+      <c r="D25" t="n">
+        <v>62.4651033347796</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>29</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-4.925004572500977</v>
+      </c>
+      <c r="D26" t="n">
+        <v>63.66344284708509</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>29</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-6.14108205761193</v>
+      </c>
+      <c r="D27" t="n">
+        <v>61.08516251968904</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C278SMPT_po_data.xlsx
+++ b/po_analysis_by_asin/B0C278SMPT_po_data.xlsx
@@ -685,7 +685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,16 +704,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -722,12 +712,6 @@
       <c r="B2" t="n">
         <v>38</v>
       </c>
-      <c r="C2" t="n">
-        <v>4.724196028557685</v>
-      </c>
-      <c r="D2" t="n">
-        <v>69.48386525379559</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -736,12 +720,6 @@
       <c r="B3" t="n">
         <v>38</v>
       </c>
-      <c r="C3" t="n">
-        <v>6.036403752373369</v>
-      </c>
-      <c r="D3" t="n">
-        <v>72.15069043208655</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -750,12 +728,6 @@
       <c r="B4" t="n">
         <v>38</v>
       </c>
-      <c r="C4" t="n">
-        <v>4.344411185869462</v>
-      </c>
-      <c r="D4" t="n">
-        <v>71.66746680044032</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -764,12 +736,6 @@
       <c r="B5" t="n">
         <v>37</v>
       </c>
-      <c r="C5" t="n">
-        <v>4.468457462162412</v>
-      </c>
-      <c r="D5" t="n">
-        <v>72.69763229161141</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -778,12 +744,6 @@
       <c r="B6" t="n">
         <v>37</v>
       </c>
-      <c r="C6" t="n">
-        <v>5.985447843216842</v>
-      </c>
-      <c r="D6" t="n">
-        <v>67.91282199265348</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -792,12 +752,6 @@
       <c r="B7" t="n">
         <v>37</v>
       </c>
-      <c r="C7" t="n">
-        <v>3.26497498227738</v>
-      </c>
-      <c r="D7" t="n">
-        <v>68.19584582704151</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -806,12 +760,6 @@
       <c r="B8" t="n">
         <v>36</v>
       </c>
-      <c r="C8" t="n">
-        <v>1.238636608320768</v>
-      </c>
-      <c r="D8" t="n">
-        <v>69.52021560521634</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -820,12 +768,6 @@
       <c r="B9" t="n">
         <v>36</v>
       </c>
-      <c r="C9" t="n">
-        <v>2.464733055337547</v>
-      </c>
-      <c r="D9" t="n">
-        <v>69.61010310956354</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -834,12 +776,6 @@
       <c r="B10" t="n">
         <v>36</v>
       </c>
-      <c r="C10" t="n">
-        <v>2.990201137511742</v>
-      </c>
-      <c r="D10" t="n">
-        <v>71.23684861118853</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -848,12 +784,6 @@
       <c r="B11" t="n">
         <v>35</v>
       </c>
-      <c r="C11" t="n">
-        <v>1.707703859705789</v>
-      </c>
-      <c r="D11" t="n">
-        <v>66.91591645686914</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -862,12 +792,6 @@
       <c r="B12" t="n">
         <v>35</v>
       </c>
-      <c r="C12" t="n">
-        <v>1.621680180779342</v>
-      </c>
-      <c r="D12" t="n">
-        <v>67.87417722941368</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -876,12 +800,6 @@
       <c r="B13" t="n">
         <v>34</v>
       </c>
-      <c r="C13" t="n">
-        <v>-1.209347626187893</v>
-      </c>
-      <c r="D13" t="n">
-        <v>68.28362214255951</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -890,12 +808,6 @@
       <c r="B14" t="n">
         <v>33</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.6204628885127841</v>
-      </c>
-      <c r="D14" t="n">
-        <v>68.8996786922621</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -904,12 +816,6 @@
       <c r="B15" t="n">
         <v>33</v>
       </c>
-      <c r="C15" t="n">
-        <v>-2.942264566244702</v>
-      </c>
-      <c r="D15" t="n">
-        <v>64.85507197258316</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -918,12 +824,6 @@
       <c r="B16" t="n">
         <v>33</v>
       </c>
-      <c r="C16" t="n">
-        <v>-2.26290456718343</v>
-      </c>
-      <c r="D16" t="n">
-        <v>67.81507885668363</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -932,12 +832,6 @@
       <c r="B17" t="n">
         <v>32</v>
       </c>
-      <c r="C17" t="n">
-        <v>-1.213508478815205</v>
-      </c>
-      <c r="D17" t="n">
-        <v>65.95849725667001</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -946,12 +840,6 @@
       <c r="B18" t="n">
         <v>32</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.04549005304805519</v>
-      </c>
-      <c r="D18" t="n">
-        <v>66.89543271648124</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -960,12 +848,6 @@
       <c r="B19" t="n">
         <v>31</v>
       </c>
-      <c r="C19" t="n">
-        <v>-0.510133002687566</v>
-      </c>
-      <c r="D19" t="n">
-        <v>65.61902817448012</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -974,12 +856,6 @@
       <c r="B20" t="n">
         <v>31</v>
       </c>
-      <c r="C20" t="n">
-        <v>-2.862120874982139</v>
-      </c>
-      <c r="D20" t="n">
-        <v>64.84032189019071</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -988,12 +864,6 @@
       <c r="B21" t="n">
         <v>31</v>
       </c>
-      <c r="C21" t="n">
-        <v>-2.026367455784517</v>
-      </c>
-      <c r="D21" t="n">
-        <v>65.0435080612598</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1002,12 +872,6 @@
       <c r="B22" t="n">
         <v>30</v>
       </c>
-      <c r="C22" t="n">
-        <v>-5.454180066051711</v>
-      </c>
-      <c r="D22" t="n">
-        <v>64.33345426202355</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1016,12 +880,6 @@
       <c r="B23" t="n">
         <v>30</v>
       </c>
-      <c r="C23" t="n">
-        <v>-2.905340922178822</v>
-      </c>
-      <c r="D23" t="n">
-        <v>66.60254390638971</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1030,12 +888,6 @@
       <c r="B24" t="n">
         <v>30</v>
       </c>
-      <c r="C24" t="n">
-        <v>-3.304976169951232</v>
-      </c>
-      <c r="D24" t="n">
-        <v>63.50043699026571</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1044,12 +896,6 @@
       <c r="B25" t="n">
         <v>29</v>
       </c>
-      <c r="C25" t="n">
-        <v>-5.146597635960095</v>
-      </c>
-      <c r="D25" t="n">
-        <v>62.4651033347796</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1058,12 +904,6 @@
       <c r="B26" t="n">
         <v>29</v>
       </c>
-      <c r="C26" t="n">
-        <v>-4.925004572500977</v>
-      </c>
-      <c r="D26" t="n">
-        <v>63.66344284708509</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1071,12 +911,6 @@
       </c>
       <c r="B27" t="n">
         <v>29</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-6.14108205761193</v>
-      </c>
-      <c r="D27" t="n">
-        <v>61.08516251968904</v>
       </c>
     </row>
   </sheetData>
